--- a/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -588,21 +588,6 @@
     <t>Competencias: comprensión de texto</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Investiga y analiza un fragmento de </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El caballero de Olmedo</t>
-    </r>
-  </si>
-  <si>
     <t>Actividad para estudiar la obra de Lope de Vega e investigar sobre el teatro barroco</t>
   </si>
   <si>
@@ -816,9 +801,6 @@
     <t>(DBA: 10) Observar cambio en titulo y descripción.</t>
   </si>
   <si>
-    <t xml:space="preserve">(DBA:2) En la imagen que permite el recurso insertar ejemplo breve de protocolo (se podría realizar en Word, guardar en pdf y luego volverlo a formato jpg; se puede solicitar, en todo caso, la ayuda de la documentadora gráfica). Luego diseñar etiquetas que el estudiante deberá ordenar correctamente de acuerdo a la estructura del protocolo. </t>
-  </si>
-  <si>
     <t>(DBA: 6,8) Diseñar preguntas sobre la experiencia de realizar un protocolo. En una de ellas debe solicitarse que el estudiante presente un protocolo de una clase de español o literatura.</t>
   </si>
   <si>
@@ -880,6 +862,24 @@
   </si>
   <si>
     <t>(DBA: 1,2,4,12) Es M102 (motor requerido para Proyecto de Competencias). Observar cambios de titulo y descripción. Modificar titulo del motor F incrustado. Revisar vínculos en botón Investiga, especialmente el de Gran Enciclopedia Planeta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(DBA:2) En la imagen que permite el recurso insertar ejemplo breve de protocolo (se podría realizar en Word, guardar en pdf y luego volverlo a formato jpg). Luego diseñar etiquetas que el estudiante deberá ordenar correctamente de acuerdo a la estructura del protocolo. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proyecto: investiga y analiza un fragmento de </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El caballero de Olmedo</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1497,13 +1497,25 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,18 +1540,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2110,94 +2110,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="51"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="42">
       <c r="A3" s="8" t="s">
@@ -2215,7 +2215,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -2272,7 +2272,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
       <c r="G4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H4" s="31">
         <v>2</v>
@@ -2292,7 +2292,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>19</v>
@@ -2329,14 +2329,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
       <c r="G5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H5" s="31">
         <v>3</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>20</v>
@@ -2349,7 +2349,7 @@
         <v>27</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>19</v>
@@ -2386,7 +2386,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
       <c r="G6" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H6" s="31">
         <v>4</v>
@@ -2406,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>19</v>
@@ -2709,7 +2709,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>19</v>
@@ -2825,7 +2825,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>19</v>
@@ -2882,7 +2882,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>19</v>
@@ -2914,14 +2914,14 @@
         <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H15" s="31">
         <v>13</v>
@@ -2930,7 +2930,7 @@
         <v>143</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>19</v>
@@ -2952,16 +2952,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="70">
@@ -2975,21 +2975,21 @@
         <v>123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>20</v>
@@ -3002,7 +3002,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>19</v>
@@ -3017,7 +3017,7 @@
         <v>125</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U16" s="6" t="s">
         <v>127</v>
@@ -3034,21 +3034,21 @@
         <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H17" s="31">
         <v>15</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>20</v>
@@ -3061,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>19</v>
@@ -3076,7 +3076,7 @@
         <v>125</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>127</v>
@@ -3093,12 +3093,12 @@
         <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H18" s="31">
         <v>16</v>
@@ -3107,7 +3107,7 @@
         <v>143</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>20</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>19</v>
@@ -3132,13 +3132,13 @@
         <v>124</v>
       </c>
       <c r="S18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="T18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="U18" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="28">
@@ -3152,21 +3152,21 @@
         <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H19" s="31">
         <v>17</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>19</v>
@@ -3177,25 +3177,25 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>133</v>
       </c>
       <c r="S19" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="U19" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="56">
@@ -3209,21 +3209,21 @@
         <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H20" s="31">
         <v>18</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>20</v>
@@ -3236,7 +3236,7 @@
         <v>52</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>19</v>
@@ -3251,7 +3251,7 @@
         <v>125</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U20" s="6" t="s">
         <v>127</v>
@@ -3268,7 +3268,7 @@
         <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="14"/>
@@ -3282,7 +3282,7 @@
         <v>143</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>20</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>19</v>
@@ -3304,16 +3304,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S21" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="T21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="U21" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="112">
@@ -3327,21 +3327,21 @@
         <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H22" s="31">
         <v>20</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>20</v>
@@ -3354,7 +3354,7 @@
         <v>46</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>19</v>
@@ -3369,7 +3369,7 @@
         <v>125</v>
       </c>
       <c r="T22" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U22" s="23" t="s">
         <v>127</v>
@@ -3386,21 +3386,21 @@
         <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H23" s="31">
         <v>21</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>20</v>
@@ -3413,7 +3413,7 @@
         <v>52</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>19</v>
@@ -3428,13 +3428,13 @@
         <v>125</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U23" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="112">
+    <row r="24" spans="1:21" ht="84">
       <c r="A24" s="8" t="s">
         <v>16</v>
       </c>
@@ -3445,21 +3445,21 @@
         <v>123</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" s="31">
         <v>22</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>20</v>
@@ -3472,7 +3472,7 @@
         <v>48</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>19</v>
@@ -3487,7 +3487,7 @@
         <v>125</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U24" s="23" t="s">
         <v>127</v>
@@ -3504,14 +3504,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H25" s="31">
         <v>23</v>
@@ -3520,7 +3520,7 @@
         <v>143</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>20</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>19</v>
@@ -3542,16 +3542,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S25" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="T25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="70">
@@ -3565,21 +3565,21 @@
         <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="31">
         <v>24</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>20</v>
@@ -3592,7 +3592,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>19</v>
@@ -3607,7 +3607,7 @@
         <v>125</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>127</v>
@@ -3629,14 +3629,14 @@
       <c r="E27" s="2"/>
       <c r="F27" s="14"/>
       <c r="G27" s="3" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="H27" s="31">
         <v>25</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>19</v>
@@ -3647,7 +3647,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>19</v>
@@ -3679,7 +3679,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="14"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>20</v>
@@ -3722,19 +3722,19 @@
         <v>123</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="14"/>
       <c r="G29" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H29" s="31">
         <v>27</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>20</v>
@@ -3747,7 +3747,7 @@
         <v>32</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>19</v>
@@ -3762,7 +3762,7 @@
         <v>125</v>
       </c>
       <c r="T29" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>127</v>
@@ -3779,7 +3779,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="14"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>20</v>
@@ -3802,7 +3802,7 @@
         <v>53</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>20</v>
@@ -3817,7 +3817,7 @@
         <v>125</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>127</v>
@@ -4016,12 +4016,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4036,9 +4030,14 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>Lectura: el protocolo</t>
-  </si>
-  <si>
-    <t>Recurso M3B-01</t>
   </si>
   <si>
     <t>Actividad diagnóstica con audios sobre las clases de textos</t>
@@ -630,9 +627,6 @@
     </r>
   </si>
   <si>
-    <t>Lingüística: escucha con atención los textos y determina sus tipos</t>
-  </si>
-  <si>
     <t>Ortografía: selecciona la palabra bien escrita en el texto</t>
   </si>
   <si>
@@ -838,9 +832,6 @@
   </si>
   <si>
     <t xml:space="preserve">El contexto del discurso </t>
-  </si>
-  <si>
-    <t>Asocia las modalidades con su definición correspondiente</t>
   </si>
   <si>
     <t>Actividad para practicar los modos del discurso</t>
@@ -880,6 +871,15 @@
       </rPr>
       <t>El caballero de Olmedo</t>
     </r>
+  </si>
+  <si>
+    <t>Asocia las modalidades con su descripción correspondiente</t>
+  </si>
+  <si>
+    <t>Lingüística: escucha con atención los textos y determina su tipología</t>
+  </si>
+  <si>
+    <t>Recurso M3B1-01</t>
   </si>
 </sst>
 </file>
@@ -1497,25 +1497,13 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,6 +1528,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2110,94 +2110,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="42">
       <c r="A3" s="8" t="s">
@@ -2215,7 +2215,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="21"/>
       <c r="G3" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -2272,14 +2272,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
       <c r="G4" s="3" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="H4" s="31">
         <v>2</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>20</v>
@@ -2292,7 +2292,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>19</v>
@@ -2307,7 +2307,7 @@
         <v>125</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="U4" s="23" t="s">
         <v>127</v>
@@ -2329,14 +2329,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="14"/>
       <c r="G5" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H5" s="31">
         <v>3</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>20</v>
@@ -2349,7 +2349,7 @@
         <v>27</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>19</v>
@@ -2364,7 +2364,7 @@
         <v>125</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>127</v>
@@ -2386,14 +2386,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="14"/>
       <c r="G6" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" s="31">
         <v>4</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>20</v>
@@ -2406,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>19</v>
@@ -2421,7 +2421,7 @@
         <v>125</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>127</v>
@@ -2438,25 +2438,25 @@
         <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="31">
         <v>5</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>19</v>
@@ -2467,25 +2467,25 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="28">
@@ -2499,23 +2499,23 @@
         <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="31">
         <v>6</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>19</v>
@@ -2526,25 +2526,25 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="28">
@@ -2558,25 +2558,25 @@
         <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>149</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H9" s="31">
         <v>7</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>19</v>
@@ -2587,25 +2587,25 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="28">
@@ -2619,25 +2619,25 @@
         <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="H10" s="31">
         <v>8</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>19</v>
@@ -2648,25 +2648,25 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="28">
@@ -2680,25 +2680,25 @@
         <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" s="31">
         <v>9</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>19</v>
@@ -2709,25 +2709,25 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S11" s="6" t="s">
+      <c r="T11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15">
@@ -2741,23 +2741,23 @@
         <v>123</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="31">
         <v>10</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>19</v>
@@ -2772,19 +2772,19 @@
         <v>19</v>
       </c>
       <c r="Q12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U12" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="70">
@@ -2798,23 +2798,23 @@
         <v>123</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H13" s="31">
         <v>11</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>19</v>
@@ -2825,25 +2825,25 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="28">
@@ -2857,21 +2857,21 @@
         <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="31">
         <v>12</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>19</v>
@@ -2882,25 +2882,25 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="98">
@@ -2914,23 +2914,23 @@
         <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H15" s="31">
         <v>13</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>19</v>
@@ -2952,16 +2952,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="70">
@@ -2975,21 +2975,21 @@
         <v>123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>20</v>
@@ -3002,7 +3002,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>19</v>
@@ -3017,7 +3017,7 @@
         <v>125</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U16" s="6" t="s">
         <v>127</v>
@@ -3034,21 +3034,21 @@
         <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="31">
         <v>15</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>20</v>
@@ -3061,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>19</v>
@@ -3076,7 +3076,7 @@
         <v>125</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>127</v>
@@ -3093,21 +3093,21 @@
         <v>123</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="14"/>
       <c r="G18" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H18" s="31">
         <v>16</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>20</v>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>19</v>
@@ -3132,13 +3132,13 @@
         <v>124</v>
       </c>
       <c r="S18" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="U18" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="28">
@@ -3152,21 +3152,21 @@
         <v>123</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H19" s="31">
         <v>17</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>19</v>
@@ -3177,25 +3177,25 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="T19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S19" s="6" t="s">
+      <c r="U19" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="56">
@@ -3209,21 +3209,21 @@
         <v>123</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H20" s="31">
         <v>18</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>20</v>
@@ -3236,7 +3236,7 @@
         <v>52</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>19</v>
@@ -3251,7 +3251,7 @@
         <v>125</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U20" s="6" t="s">
         <v>127</v>
@@ -3268,7 +3268,7 @@
         <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="14"/>
@@ -3279,10 +3279,10 @@
         <v>19</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>20</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>19</v>
@@ -3304,16 +3304,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S21" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="T21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="U21" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="112">
@@ -3327,21 +3327,21 @@
         <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H22" s="31">
         <v>20</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>20</v>
@@ -3354,7 +3354,7 @@
         <v>46</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>19</v>
@@ -3369,7 +3369,7 @@
         <v>125</v>
       </c>
       <c r="T22" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U22" s="23" t="s">
         <v>127</v>
@@ -3386,21 +3386,21 @@
         <v>123</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H23" s="31">
         <v>21</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>20</v>
@@ -3413,7 +3413,7 @@
         <v>52</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>19</v>
@@ -3428,7 +3428,7 @@
         <v>125</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U23" s="6" t="s">
         <v>127</v>
@@ -3445,21 +3445,21 @@
         <v>123</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H24" s="31">
         <v>22</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>20</v>
@@ -3472,7 +3472,7 @@
         <v>48</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>19</v>
@@ -3487,7 +3487,7 @@
         <v>125</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U24" s="23" t="s">
         <v>127</v>
@@ -3504,23 +3504,23 @@
         <v>123</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H25" s="31">
         <v>23</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>20</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>19</v>
@@ -3542,16 +3542,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S25" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="T25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="70">
@@ -3565,21 +3565,21 @@
         <v>123</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H26" s="31">
         <v>24</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>20</v>
@@ -3592,7 +3592,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>19</v>
@@ -3607,7 +3607,7 @@
         <v>125</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>127</v>
@@ -3624,19 +3624,19 @@
         <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="14"/>
       <c r="G27" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H27" s="31">
         <v>25</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>19</v>
@@ -3647,25 +3647,25 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="32" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S27" s="6" t="s">
+      <c r="T27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U27" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15">
@@ -3679,7 +3679,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="14"/>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>20</v>
@@ -3722,19 +3722,19 @@
         <v>123</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="14"/>
       <c r="G29" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H29" s="31">
         <v>27</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>20</v>
@@ -3747,7 +3747,7 @@
         <v>32</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>19</v>
@@ -3762,7 +3762,7 @@
         <v>125</v>
       </c>
       <c r="T29" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>127</v>
@@ -3779,7 +3779,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="14"/>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>20</v>
@@ -3802,7 +3802,7 @@
         <v>53</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>20</v>
@@ -3817,7 +3817,7 @@
         <v>125</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U30" s="6" t="s">
         <v>127</v>
@@ -4016,6 +4016,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4030,12 +4036,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1497,13 +1497,25 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,18 +1540,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2110,94 +2110,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="51"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="42">
       <c r="A3" s="8" t="s">
@@ -4016,12 +4016,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4036,6 +4030,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion03/Escaleta_LE_10_03_CO_version2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -813,16 +813,10 @@
     <t>Lectura crítica y producción escrita: reflexiona sobre el protocolo</t>
   </si>
   <si>
-    <t>El discurso</t>
-  </si>
-  <si>
     <t>(DBA: 2,9) Diseñar interactivo que presente la definición de discurso, sus propiedades (criterios de textualidad) y estructura desde el punto de vista lingüístico, con ejemplos e imágenes. Puede ser útil consultar: http://cvc.cervantes.es/ensenanza/biblioteca_ele/diccio_ele/diccionario/linguisticatextual.htm</t>
   </si>
   <si>
     <t>Lingüística: el discurso y sus modalidades</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta las modalidades del discurso</t>
   </si>
   <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: El discurso y sus modalidades </t>
@@ -880,6 +874,12 @@
   </si>
   <si>
     <t>Recurso M3B1-01</t>
+  </si>
+  <si>
+    <t>Las modalidades del discurso</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta los géneros discursivos</t>
   </si>
 </sst>
 </file>
@@ -1497,25 +1497,13 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,6 +1528,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2080,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2110,94 +2110,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="12" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="42">
       <c r="A3" s="8" t="s">
@@ -2272,7 +2272,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="14"/>
       <c r="G4" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" s="31">
         <v>2</v>
@@ -2292,7 +2292,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>19</v>
@@ -2307,7 +2307,7 @@
         <v>125</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U4" s="23" t="s">
         <v>127</v>
@@ -2914,14 +2914,14 @@
         <v>123</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="3" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H15" s="31">
         <v>13</v>
@@ -2930,7 +2930,7 @@
         <v>142</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>20</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>19</v>
@@ -2975,21 +2975,21 @@
         <v>123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H16" s="31">
         <v>14</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>20</v>
@@ -3002,7 +3002,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>19</v>
@@ -3034,21 +3034,21 @@
         <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H17" s="31">
         <v>15</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>20</v>
@@ -3061,7 +3061,7 @@
         <v>52</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>19</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>19</v>
@@ -3354,7 +3354,7 @@
         <v>46</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>19</v>
@@ -3472,7 +3472,7 @@
         <v>48</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>19</v>
@@ -3629,7 +3629,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="14"/>
       <c r="G27" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H27" s="31">
         <v>25</v>
@@ -3647,7 +3647,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>19</v>
@@ -4016,6 +4016,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4030,12 +4036,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
